--- a/trunk/PROJET/CRA/CRA-RESTIT-JASPER-26-01-11.xlsx
+++ b/trunk/PROJET/CRA/CRA-RESTIT-JASPER-26-01-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Total</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Charaf EL BELLAI</t>
   </si>
   <si>
-    <t>Mise à jour des tableaux et graphiques du responsable magasin en suivant SFD et couleurs dans les ecarts</t>
-  </si>
-  <si>
     <t>Création de tous les tableaux et graphiques du directeur commercial et quelques responsable régional</t>
   </si>
   <si>
@@ -91,10 +88,16 @@
     <t>Intégration des tableaux et graphiques du responsable régional dans l'application java avec gestion des changements de paramètres</t>
   </si>
   <si>
-    <t>Intégration des tableaux et graphiques du directeur commercial dans l'application java avec gestion des changements de paramètres</t>
-  </si>
-  <si>
     <t>Gestion des couleurs pour les écarts et les régions dans les tableaux et graphiques</t>
+  </si>
+  <si>
+    <t>Mise à jour des tableaux et graphiques du responsable magasin en suivant SFD et couleurs dans les ecarts (palmares+historique)</t>
+  </si>
+  <si>
+    <t>Mise à jour des tableaux et graphiques du responsable magasin en suivant SFD et couleurs dans les ecarts(details)</t>
+  </si>
+  <si>
+    <t>Intégration des tableaux et graphiques du directeur commercial dans l'application java avec gestion des changements de paramètres + graphique details responsable regional</t>
   </si>
 </sst>
 </file>
@@ -522,6 +525,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -565,9 +571,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -872,7 +875,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -889,32 +892,32 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="40.5" customHeight="1" thickBot="1">
       <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="36">
         <v>40569</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="36">
         <f>DATE(YEAR(C2), MONTH(C2),DAY(C2)+14)</f>
         <v>40583</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="1"/>
       <c r="I2" s="4"/>
     </row>
@@ -922,13 +925,13 @@
       <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="1"/>
       <c r="I3" s="4"/>
     </row>
@@ -969,20 +972,20 @@
       <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>24</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="5">
@@ -993,18 +996,18 @@
       <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>25</v>
+      <c r="F7" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17">
@@ -1015,7 +1018,7 @@
       <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1027,7 +1030,7 @@
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1039,7 +1042,7 @@
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="18"/>
@@ -1054,13 +1057,13 @@
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="3">
         <f>SUM(H6:H10)</f>
         <v>100</v>
@@ -1077,206 +1080,206 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="25"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="25"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="25"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="25"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="25"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="25"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="25"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="25"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="25"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="25"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="25"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="25"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="25"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="25"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="25"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="25"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="25"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="25"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
